--- a/source_data/Predictions/male/T20I_predictions.xlsx
+++ b/source_data/Predictions/male/T20I_predictions.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,8 +516,168 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>45463.84554694966</v>
+      <c r="H2" s="3" t="n">
+        <v>45463.84554694445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Darren Sammy National Cricket Stadium, Gros Islet, St Lucia</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>45464.8266116088</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sir Vivian Richards Stadium, North Sound, Antigua</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>45467.69592597222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Arnos Vale Ground, Kingstown, St Vincent, Kingstown</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>45468.42199060186</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Providence Stadium, Guyana, Providence</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>45470.49334142315</v>
       </c>
     </row>
   </sheetData>
